--- a/results/mp/logistic/corona/confidence/210/desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>died</t>
   </si>
   <si>
     <t>sc</t>
@@ -70,6 +73,12 @@
     <t>fears</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -82,55 +91,61 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
   </si>
   <si>
     <t>friends</t>
@@ -139,55 +154,55 @@
     <t>nice</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>gt</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
@@ -554,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -673,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8424657534246576</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9666666666666667</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8275862068965517</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9268929503916449</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0.9230769230769231</v>
@@ -923,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6388888888888888</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5873015873015873</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.9069767441860465</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4689922480620155</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C11">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.9014084507042254</v>
+        <v>0.8984375</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4117647058823529</v>
+        <v>0.498062015503876</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2416107382550336</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K13">
         <v>0.8928571428571429</v>
@@ -1173,323 +1188,395 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1138888888888889</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="L14">
+        <v>94</v>
+      </c>
+      <c r="M14">
+        <v>94</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.8837209302325582</v>
+      </c>
+      <c r="L15">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.2483221476510067</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>112</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.88125</v>
+      </c>
+      <c r="L16">
+        <v>141</v>
+      </c>
+      <c r="M16">
+        <v>141</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>305</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L17">
         <v>41</v>
       </c>
-      <c r="D14">
+      <c r="M17">
         <v>41</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>319</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
-        <v>32</v>
-      </c>
-      <c r="M14">
-        <v>32</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L20">
         <v>33</v>
       </c>
-      <c r="K15">
-        <v>0.8875</v>
-      </c>
-      <c r="L15">
-        <v>142</v>
-      </c>
-      <c r="M15">
-        <v>142</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16">
-        <v>0.8828125</v>
-      </c>
-      <c r="L16">
-        <v>113</v>
-      </c>
-      <c r="M16">
-        <v>113</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17">
-        <v>0.8773584905660378</v>
-      </c>
-      <c r="L17">
-        <v>93</v>
-      </c>
-      <c r="M17">
-        <v>93</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L21">
+        <v>69</v>
+      </c>
+      <c r="M21">
+        <v>69</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18">
-        <v>0.8658536585365854</v>
-      </c>
-      <c r="L18">
-        <v>71</v>
-      </c>
-      <c r="M18">
-        <v>71</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L19">
-        <v>50</v>
-      </c>
-      <c r="M19">
-        <v>50</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.84</v>
+      </c>
+      <c r="L22">
+        <v>42</v>
+      </c>
+      <c r="M22">
+        <v>42</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L20">
-        <v>31</v>
-      </c>
-      <c r="M20">
-        <v>31</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23">
+        <v>23</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L21">
-        <v>23</v>
-      </c>
-      <c r="M21">
-        <v>23</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23">
-        <v>0.8125</v>
-      </c>
-      <c r="L23">
-        <v>39</v>
-      </c>
-      <c r="M23">
-        <v>39</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L24">
-        <v>31</v>
-      </c>
-      <c r="M24">
-        <v>31</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
+    <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.7936507936507936</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1501,12 +1588,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>0.7916666666666666</v>
@@ -1530,18 +1617,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="10:17">
+    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.78</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1556,18 +1643,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="10:17">
+    <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.7714285714285715</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1579,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1605,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.7470588235294118</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L30">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M30">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1631,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.7154811715481172</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L31">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="M31">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1657,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L32">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32">
-        <v>0.7040816326530612</v>
-      </c>
-      <c r="L32">
-        <v>207</v>
-      </c>
       <c r="M32">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1680,24 +1767,24 @@
         <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.696969696969697</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1709,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.6914893617021277</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L34">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1735,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6615384615384615</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1761,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.651685393258427</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L36">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M36">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1787,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.6285714285714286</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1813,21 +1900,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.6078431372549019</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1839,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5714285714285714</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1865,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5205479452054794</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1891,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.4666666666666667</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1917,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.358974358974359</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1943,7 +2030,59 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>50</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <v>25</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>35</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
